--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1620765.79069461</v>
+        <v>1618573.913541437</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4804710.416112608</v>
+        <v>4804710.416112609</v>
       </c>
     </row>
     <row r="11">
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8069000430770259</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343126</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W3" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>41.31500304752735</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -980,67 +980,67 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36.39025468426208</v>
-      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H6" t="n">
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,58 +1071,58 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="X7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="I7" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>21.20364308168184</v>
-      </c>
-      <c r="S7" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
       <c r="Y7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>41.31500304752735</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>155.6568308015044</v>
+        <v>98.67734797079603</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.9513258013682</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T11" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117702</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1584,7 +1584,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896236</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>156.2494106883027</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>271.5679831933489</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>49.52363970453974</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>146.4504960531562</v>
+        <v>146.4504960531559</v>
       </c>
       <c r="T16" t="n">
-        <v>240.675072556151</v>
+        <v>240.6750725561512</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896236</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>113.7298536889193</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>155.6495571312224</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2058,7 +2058,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896231</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>173.7137727436094</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2134,10 +2134,10 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>12.51672613389919</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2292,10 +2292,10 @@
         <v>146.4504960531559</v>
       </c>
       <c r="T22" t="n">
-        <v>240.6750725561512</v>
+        <v>240.675072556151</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896236</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427837</v>
       </c>
       <c r="T23" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752256</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2845,10 +2845,10 @@
         <v>50.17164010427808</v>
       </c>
       <c r="T29" t="n">
-        <v>211.5956667680352</v>
+        <v>211.595666768035</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752256</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -3085,7 +3085,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3268,13 +3268,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>54.34065470933336</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>152.8530482680363</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3480,7 +3480,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6136207896236</v>
+        <v>275.6136207896234</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199207</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>394.0204795710853</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T38" t="n">
         <v>211.5956667680352</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>110.3580436952237</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3717,7 +3717,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6136207896231</v>
+        <v>275.6136207896226</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3796,19 +3796,19 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>92.52342349370059</v>
       </c>
       <c r="X41" t="n">
-        <v>371.1962639807641</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978604</v>
       </c>
       <c r="G43" t="n">
         <v>163.2927798113889</v>
@@ -3954,7 +3954,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6136207896226</v>
+        <v>275.6136207896234</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.26742663876246</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>391.8644296485594</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
         <v>271.5679831933489</v>
@@ -4033,7 +4033,7 @@
         <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117693</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4155,7 +4155,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I46" t="n">
-        <v>68.44914407541543</v>
+        <v>68.44914407541627</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4336,22 +4336,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="L2" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M2" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N2" t="n">
-        <v>126.0107592949584</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O2" t="n">
-        <v>126.0107592949584</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P2" t="n">
-        <v>126.0107592949584</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q2" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4406,52 +4406,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M3" t="n">
-        <v>44.20705326085427</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N3" t="n">
-        <v>85.10890627790634</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O3" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P3" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="Q3" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="U3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W3" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y3" t="n">
         <v>3.305200243802188</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.64521196358022</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C4" t="n">
-        <v>18.64521196358022</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D4" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E4" t="n">
         <v>3.305200243802188</v>
@@ -4491,19 +4491,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L4" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M4" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N4" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O4" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P4" t="n">
         <v>124.3581591730573</v>
@@ -4515,25 +4515,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T4" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U4" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V4" t="n">
-        <v>60.37753827421391</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W4" t="n">
-        <v>60.37753827421391</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X4" t="n">
-        <v>60.37753827421391</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.37753827421391</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="5">
@@ -4567,22 +4567,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K5" t="n">
-        <v>83.45630615600527</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>83.45630615600527</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M5" t="n">
-        <v>83.45630615600527</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N5" t="n">
-        <v>83.45630615600527</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O5" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
         <v>83.45630615600527</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D6" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F6" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="L6" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="M6" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="N6" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="O6" t="n">
         <v>42.55445313895319</v>
       </c>
-      <c r="K6" t="n">
-        <v>42.55445313895319</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>83.45630615600527</v>
-      </c>
-      <c r="M6" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="N6" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="O6" t="n">
-        <v>124.3581591730573</v>
-      </c>
-      <c r="P6" t="n">
-        <v>124.3581591730573</v>
       </c>
       <c r="Q6" t="n">
         <v>124.3581591730573</v>
@@ -4679,19 +4679,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="7">
@@ -4701,73 +4701,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C7" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G7" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H7" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M7" t="n">
-        <v>44.20705326085427</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N7" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O7" t="n">
-        <v>85.10890627790634</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>143.8421908954813</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S7" t="n">
-        <v>102.1098645848476</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T7" t="n">
-        <v>102.1098645848476</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U7" t="n">
-        <v>102.1098645848476</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V7" t="n">
-        <v>102.1098645848476</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W7" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X7" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y7" t="n">
         <v>86.76985286506957</v>
@@ -4813,13 +4813,13 @@
         <v>3.305200243802188</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P8" t="n">
         <v>83.45630615600527</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C9" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="E9" t="n">
         <v>86.76985286506957</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>29.36887340425979</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J9" t="n">
-        <v>70.27072642131186</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K9" t="n">
-        <v>83.45630615600527</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L9" t="n">
-        <v>83.45630615600527</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M9" t="n">
-        <v>83.45630615600527</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N9" t="n">
-        <v>83.45630615600527</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O9" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P9" t="n">
         <v>83.45630615600527</v>
@@ -4916,19 +4916,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
         <v>3.305200243802188</v>
@@ -4962,25 +4962,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>42.55445313895319</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55445313895319</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M10" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -5001,13 +5001,13 @@
         <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="X10" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="Y10" t="n">
         <v>86.76985286506957</v>
-      </c>
-      <c r="X10" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1325.391597564436</v>
+        <v>2131.613778818452</v>
       </c>
       <c r="C11" t="n">
-        <v>1168.162475542714</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="D11" t="n">
-        <v>1168.162475542714</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E11" t="n">
-        <v>734.3877307010093</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F11" t="n">
         <v>734.3877307010093</v>
@@ -5044,22 +5044,22 @@
         <v>234.7606604020848</v>
       </c>
       <c r="K11" t="n">
-        <v>528.531053959959</v>
+        <v>415.1612716583816</v>
       </c>
       <c r="L11" t="n">
-        <v>1272.587858950985</v>
+        <v>638.9641820350653</v>
       </c>
       <c r="M11" t="n">
-        <v>1521.611718949273</v>
+        <v>887.9880420333533</v>
       </c>
       <c r="N11" t="n">
-        <v>1774.665045348764</v>
+        <v>1141.041368432844</v>
       </c>
       <c r="O11" t="n">
-        <v>2013.616125720289</v>
+        <v>1473.498539497732</v>
       </c>
       <c r="P11" t="n">
-        <v>2217.555344488757</v>
+        <v>2217.555344488758</v>
       </c>
       <c r="Q11" t="n">
         <v>2917.20399048531</v>
@@ -5068,25 +5068,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S11" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T11" t="n">
-        <v>2792.557124440474</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="U11" t="n">
-        <v>2533.450581536206</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="V11" t="n">
-        <v>2170.833631470033</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="W11" t="n">
-        <v>2170.833631470033</v>
+        <v>2550.756242239141</v>
       </c>
       <c r="X11" t="n">
-        <v>1751.691168049344</v>
+        <v>2131.613778818452</v>
       </c>
       <c r="Y11" t="n">
-        <v>1751.691168049344</v>
+        <v>2131.613778818452</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K12" t="n">
-        <v>280.472113037332</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L12" t="n">
-        <v>445.2293041160066</v>
+        <v>471.2929772764642</v>
       </c>
       <c r="M12" t="n">
-        <v>637.4931750101595</v>
+        <v>663.5568481706169</v>
       </c>
       <c r="N12" t="n">
-        <v>1228.151173903613</v>
+        <v>860.909371628335</v>
       </c>
       <c r="O12" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P12" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q12" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R12" t="n">
         <v>1697.561900409858</v>
@@ -5178,13 +5178,13 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C13" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989592</v>
       </c>
       <c r="D13" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004819</v>
       </c>
       <c r="E13" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F13" t="n">
         <v>428.3398778129751</v>
@@ -5232,7 +5232,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U13" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V13" t="n">
         <v>2049.901088400909</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1755.992632681299</v>
+        <v>2070.131328632843</v>
       </c>
       <c r="C14" t="n">
-        <v>1755.992632681299</v>
+        <v>1631.988855816266</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.082847855744</v>
+        <v>1196.07907099071</v>
       </c>
       <c r="E14" t="n">
-        <v>1162.255160291802</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F14" t="n">
-        <v>734.3877307010093</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G14" t="n">
         <v>334.4368965582132</v>
@@ -5278,52 +5278,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K14" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L14" t="n">
-        <v>638.9641820350654</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M14" t="n">
-        <v>1383.020987026091</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N14" t="n">
-        <v>1636.074313425582</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O14" t="n">
-        <v>2380.131118416608</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P14" t="n">
-        <v>2584.070337185077</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q14" t="n">
-        <v>2748.049925732254</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R14" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T14" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U14" t="n">
-        <v>3006.290121175863</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V14" t="n">
-        <v>3006.290121175863</v>
+        <v>2120.155207122277</v>
       </c>
       <c r="W14" t="n">
-        <v>2601.434666586896</v>
+        <v>2070.131328632843</v>
       </c>
       <c r="X14" t="n">
-        <v>2182.292203166207</v>
+        <v>2070.131328632843</v>
       </c>
       <c r="Y14" t="n">
-        <v>2182.292203166207</v>
+        <v>2070.131328632843</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G15" t="n">
-        <v>94.3841987827997</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H15" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K15" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L15" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M15" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N15" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O15" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P15" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5418,16 +5418,16 @@
         <v>940.682928398959</v>
       </c>
       <c r="D16" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E16" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512185</v>
       </c>
       <c r="F16" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129747</v>
       </c>
       <c r="G16" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H16" t="n">
         <v>129.2663519946448</v>
@@ -5436,22 +5436,22 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J16" t="n">
-        <v>105.1020732595476</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K16" t="n">
-        <v>453.7703569787437</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L16" t="n">
-        <v>966.5593737926657</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M16" t="n">
-        <v>1525.763677906287</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N16" t="n">
         <v>1843.181366743664</v>
       </c>
       <c r="O16" t="n">
-        <v>2352.768458191202</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P16" t="n">
         <v>2777.215599969509</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1872.507235914184</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="C17" t="n">
-        <v>1757.628595824366</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="D17" t="n">
-        <v>1321.718810998811</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E17" t="n">
-        <v>887.9440661571057</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F17" t="n">
-        <v>460.0766365663134</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G17" t="n">
         <v>60.12580242351726</v>
@@ -5515,52 +5515,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>259.6926349392691</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K17" t="n">
-        <v>440.0932461955659</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L17" t="n">
-        <v>663.8961565722497</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M17" t="n">
-        <v>1407.952961563276</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N17" t="n">
-        <v>2152.009766554302</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O17" t="n">
-        <v>2390.960846925827</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P17" t="n">
-        <v>2594.900065694295</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q17" t="n">
-        <v>2748.049925732254</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R17" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S17" t="n">
-        <v>2955.611696828108</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="T17" t="n">
-        <v>2955.611696828108</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="U17" t="n">
-        <v>2696.50515392384</v>
+        <v>2747.183578271595</v>
       </c>
       <c r="V17" t="n">
-        <v>2696.50515392384</v>
+        <v>2589.961803391572</v>
       </c>
       <c r="W17" t="n">
-        <v>2291.649699334873</v>
+        <v>2185.106348802606</v>
       </c>
       <c r="X17" t="n">
-        <v>1872.507235914184</v>
+        <v>1765.963885381916</v>
       </c>
       <c r="Y17" t="n">
-        <v>1872.507235914184</v>
+        <v>1357.67776168157</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G18" t="n">
-        <v>94.3841987827997</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H18" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K18" t="n">
-        <v>280.472113037332</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L18" t="n">
-        <v>838.5347795517418</v>
+        <v>471.2929772764642</v>
       </c>
       <c r="M18" t="n">
-        <v>1030.798650445895</v>
+        <v>663.5568481706169</v>
       </c>
       <c r="N18" t="n">
-        <v>1228.151173903613</v>
+        <v>860.909371628335</v>
       </c>
       <c r="O18" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P18" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q18" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R18" t="n">
         <v>1697.561900409858</v>
@@ -5652,13 +5652,13 @@
         <v>1113.244639915735</v>
       </c>
       <c r="C19" t="n">
-        <v>940.6829283989596</v>
+        <v>940.6829283989595</v>
       </c>
       <c r="D19" t="n">
-        <v>774.8049356004822</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E19" t="n">
-        <v>605.0469318512191</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F19" t="n">
         <v>428.3398778129751</v>
@@ -5673,25 +5673,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J19" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K19" t="n">
-        <v>540.3500421434336</v>
+        <v>399.7727096942242</v>
       </c>
       <c r="L19" t="n">
-        <v>1053.139058957356</v>
+        <v>912.5617265081463</v>
       </c>
       <c r="M19" t="n">
-        <v>1303.573255757435</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N19" t="n">
-        <v>1843.181366743664</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O19" t="n">
-        <v>2352.768458191202</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P19" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q19" t="n">
         <v>2998.677814292588</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>926.1357048308862</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="C20" t="n">
-        <v>487.9932320143095</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="D20" t="n">
-        <v>487.9932320143095</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E20" t="n">
         <v>487.9932320143095</v>
@@ -5752,52 +5752,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K20" t="n">
-        <v>569.924115299053</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L20" t="n">
-        <v>1313.980920290079</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M20" t="n">
-        <v>1563.004780288367</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N20" t="n">
-        <v>1816.058106687858</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O20" t="n">
-        <v>2560.114911678884</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P20" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q20" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R20" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S20" t="n">
-        <v>2955.611696828108</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T20" t="n">
-        <v>2955.611696828108</v>
+        <v>2942.968539117098</v>
       </c>
       <c r="U20" t="n">
-        <v>2696.50515392384</v>
+        <v>2942.968539117098</v>
       </c>
       <c r="V20" t="n">
-        <v>2333.888203857666</v>
+        <v>2580.351589050924</v>
       </c>
       <c r="W20" t="n">
-        <v>1929.032749268699</v>
+        <v>2175.496134461958</v>
       </c>
       <c r="X20" t="n">
-        <v>1509.89028584801</v>
+        <v>1756.353671041269</v>
       </c>
       <c r="Y20" t="n">
-        <v>1101.604162147663</v>
+        <v>1348.067547340922</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G21" t="n">
-        <v>94.3841987827997</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H21" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J21" t="n">
-        <v>157.9417523880325</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K21" t="n">
-        <v>673.7775884730672</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L21" t="n">
-        <v>838.5347795517418</v>
+        <v>471.2929772764642</v>
       </c>
       <c r="M21" t="n">
-        <v>1030.798650445895</v>
+        <v>663.5568481706169</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.151173903613</v>
+        <v>860.909371628335</v>
       </c>
       <c r="O21" t="n">
-        <v>1408.690176922396</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P21" t="n">
-        <v>1553.588643444633</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q21" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R21" t="n">
         <v>1697.561900409858</v>
@@ -5889,19 +5889,19 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C22" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989589</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512185</v>
       </c>
       <c r="F22" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129747</v>
       </c>
       <c r="G22" t="n">
-        <v>263.3976759832894</v>
+        <v>263.397675983289</v>
       </c>
       <c r="H22" t="n">
         <v>129.2663519946448</v>
@@ -5910,13 +5910,13 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J22" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595475</v>
       </c>
       <c r="K22" t="n">
-        <v>540.3500421434336</v>
+        <v>231.5799348298918</v>
       </c>
       <c r="L22" t="n">
-        <v>1053.139058957356</v>
+        <v>744.3689516438141</v>
       </c>
       <c r="M22" t="n">
         <v>1303.573255757435</v>
@@ -5925,7 +5925,7 @@
         <v>1843.181366743664</v>
       </c>
       <c r="O22" t="n">
-        <v>2352.768458191202</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P22" t="n">
         <v>2777.215599969509</v>
@@ -5949,7 +5949,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W22" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X22" t="n">
         <v>1532.482929320613</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.07217436438</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547804</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722248</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880543</v>
       </c>
       <c r="F23" t="n">
-        <v>775.3777422897501</v>
+        <v>775.377742289751</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469538</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
@@ -5989,52 +5989,52 @@
         <v>155.3825509282454</v>
       </c>
       <c r="J23" t="n">
-        <v>275.7506719908251</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K23" t="n">
-        <v>456.151283247122</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>679.9541936238056</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M23" t="n">
-        <v>928.9780536220936</v>
+        <v>2198.583033033189</v>
       </c>
       <c r="N23" t="n">
-        <v>2180.28625202378</v>
+        <v>2451.636359432679</v>
       </c>
       <c r="O23" t="n">
-        <v>3399.416998965612</v>
+        <v>3065.652765570851</v>
       </c>
       <c r="P23" t="n">
-        <v>4097.901859172714</v>
+        <v>4097.901859172715</v>
       </c>
       <c r="Q23" t="n">
-        <v>4797.550505169267</v>
+        <v>4797.550505169268</v>
       </c>
       <c r="R23" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612877</v>
       </c>
       <c r="S23" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265121</v>
       </c>
       <c r="T23" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.379279529732</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625464</v>
       </c>
       <c r="V23" t="n">
-        <v>4169.655786559289</v>
+        <v>4169.65578655929</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970324</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549635</v>
       </c>
       <c r="Y23" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849288</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181688</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674682</v>
       </c>
       <c r="L24" t="n">
-        <v>486.2193157047469</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M24" t="n">
-        <v>678.4831865988998</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N24" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6147,22 +6147,22 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J25" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K25" t="n">
-        <v>494.760368567484</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L25" t="n">
-        <v>1007.549385381406</v>
+        <v>785.3589632325543</v>
       </c>
       <c r="M25" t="n">
-        <v>1566.753689495027</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N25" t="n">
-        <v>2106.361800481256</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O25" t="n">
-        <v>2615.948891928794</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P25" t="n">
         <v>2818.205611558249</v>
@@ -6229,10 +6229,10 @@
         <v>711.0053594437429</v>
       </c>
       <c r="K26" t="n">
-        <v>891.4059707000398</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>1322.340160398147</v>
+        <v>2324.624498801545</v>
       </c>
       <c r="M26" t="n">
         <v>2573.648358799833</v>
@@ -6302,31 +6302,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I27" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181688</v>
       </c>
       <c r="K27" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674682</v>
       </c>
       <c r="L27" t="n">
-        <v>486.2193157047469</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M27" t="n">
-        <v>678.4831865988998</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N27" t="n">
-        <v>875.8357100566178</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O27" t="n">
-        <v>1056.374713075401</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P27" t="n">
-        <v>1201.273179597638</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q27" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R27" t="n">
         <v>1738.551911998599</v>
@@ -6396,10 +6396,10 @@
         <v>1653.333374659717</v>
       </c>
       <c r="N28" t="n">
-        <v>2192.941485645946</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O28" t="n">
-        <v>2702.528577093483</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P28" t="n">
         <v>2818.205611558249</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2511.072174364378</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C29" t="n">
         <v>2072.929701547802</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.019916722246</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E29" t="n">
-        <v>1203.245171880541</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897492</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469534</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
@@ -6463,52 +6463,52 @@
         <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>275.750671990825</v>
+        <v>711.0053594437429</v>
       </c>
       <c r="K29" t="n">
-        <v>456.1512832471219</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L29" t="n">
-        <v>679.9541936238055</v>
+        <v>1949.559173034901</v>
       </c>
       <c r="M29" t="n">
-        <v>928.9780536220936</v>
+        <v>2198.583033033189</v>
       </c>
       <c r="N29" t="n">
-        <v>1846.522018629017</v>
+        <v>2451.636359432679</v>
       </c>
       <c r="O29" t="n">
-        <v>3065.652765570849</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P29" t="n">
         <v>4097.901859172714</v>
       </c>
       <c r="Q29" t="n">
-        <v>4797.550505169266</v>
+        <v>4797.550505169267</v>
       </c>
       <c r="R29" t="n">
-        <v>5055.790700612875</v>
+        <v>5055.790700612876</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.112276265119</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.37927952973</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U29" t="n">
-        <v>4532.272736625462</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V29" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W29" t="n">
-        <v>3764.800331970322</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X29" t="n">
         <v>3345.657868549633</v>
       </c>
       <c r="Y29" t="n">
-        <v>2937.371744849286</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D30" t="n">
-        <v>397.4893413874963</v>
+        <v>397.4893413874964</v>
       </c>
       <c r="E30" t="n">
-        <v>303.36892671445</v>
+        <v>303.3689267144501</v>
       </c>
       <c r="F30" t="n">
         <v>219.9850883306117</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3742103715399</v>
+        <v>135.37421037154</v>
       </c>
       <c r="H30" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181688</v>
       </c>
       <c r="K30" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674682</v>
       </c>
       <c r="L30" t="n">
-        <v>486.2193157047469</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M30" t="n">
-        <v>678.4831865988998</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N30" t="n">
-        <v>875.8357100566178</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O30" t="n">
-        <v>1056.374713075401</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P30" t="n">
-        <v>1201.273179597638</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q30" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R30" t="n">
         <v>1738.551911998599</v>
@@ -6624,13 +6624,13 @@
         <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>581.3400537321737</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L31" t="n">
-        <v>1094.129070546096</v>
+        <v>785.3589632325543</v>
       </c>
       <c r="M31" t="n">
-        <v>1653.333374659717</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N31" t="n">
         <v>1884.171378332404</v>
@@ -6691,31 +6691,31 @@
         <v>775.377742289751</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469547</v>
+        <v>375.4269081469535</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I32" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J32" t="n">
         <v>711.0053594437429</v>
       </c>
       <c r="K32" t="n">
-        <v>1725.756262658218</v>
+        <v>891.4059707000398</v>
       </c>
       <c r="L32" t="n">
-        <v>1949.559173034901</v>
+        <v>1322.340160398147</v>
       </c>
       <c r="M32" t="n">
-        <v>2198.583033033189</v>
+        <v>2573.648358799834</v>
       </c>
       <c r="N32" t="n">
-        <v>2674.831893462414</v>
+        <v>2826.701685199324</v>
       </c>
       <c r="O32" t="n">
-        <v>3893.962640404246</v>
+        <v>3065.65276557085</v>
       </c>
       <c r="P32" t="n">
         <v>4097.901859172714</v>
@@ -6727,10 +6727,10 @@
         <v>5055.790700612876</v>
       </c>
       <c r="S32" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T32" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.379279529731</v>
       </c>
       <c r="U32" t="n">
         <v>4532.272736625464</v>
@@ -6776,31 +6776,31 @@
         <v>101.1158140122575</v>
       </c>
       <c r="I33" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181688</v>
       </c>
       <c r="K33" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674682</v>
       </c>
       <c r="L33" t="n">
-        <v>486.2193157047469</v>
+        <v>762.3520130461428</v>
       </c>
       <c r="M33" t="n">
-        <v>1071.788662034635</v>
+        <v>954.6158839402957</v>
       </c>
       <c r="N33" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398014</v>
       </c>
       <c r="O33" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P33" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q33" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R33" t="n">
         <v>1738.551911998599</v>
@@ -6858,19 +6858,19 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J34" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K34" t="n">
-        <v>494.760368567484</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L34" t="n">
-        <v>1007.549385381406</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.563267346175</v>
+        <v>1653.333374659717</v>
       </c>
       <c r="N34" t="n">
-        <v>1884.171378332404</v>
+        <v>2192.941485645946</v>
       </c>
       <c r="O34" t="n">
         <v>2393.758469779942</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1598.164945117357</v>
+        <v>1812.518146035814</v>
       </c>
       <c r="C35" t="n">
-        <v>1598.164945117357</v>
+        <v>1757.628595824366</v>
       </c>
       <c r="D35" t="n">
-        <v>1162.255160291802</v>
+        <v>1321.718810998811</v>
       </c>
       <c r="E35" t="n">
-        <v>1162.255160291802</v>
+        <v>887.9440661571057</v>
       </c>
       <c r="F35" t="n">
-        <v>734.3877307010093</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G35" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="H35" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I35" t="n">
-        <v>114.3925393395051</v>
+        <v>114.392539339505</v>
       </c>
       <c r="J35" t="n">
         <v>234.7606604020848</v>
       </c>
       <c r="K35" t="n">
-        <v>415.1612716583817</v>
+        <v>978.8174653931105</v>
       </c>
       <c r="L35" t="n">
-        <v>638.9641820350653</v>
+        <v>1202.620375769794</v>
       </c>
       <c r="M35" t="n">
-        <v>887.9880420333534</v>
+        <v>1451.644235768082</v>
       </c>
       <c r="N35" t="n">
-        <v>1141.041368432844</v>
+        <v>1704.697562167573</v>
       </c>
       <c r="O35" t="n">
-        <v>1379.992448804369</v>
+        <v>1943.648642539098</v>
       </c>
       <c r="P35" t="n">
-        <v>2124.049253795395</v>
+        <v>2687.705447530123</v>
       </c>
       <c r="Q35" t="n">
-        <v>2748.049925732253</v>
+        <v>2917.203990485309</v>
       </c>
       <c r="R35" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S35" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="T35" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="U35" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="V35" t="n">
-        <v>3006.290121175863</v>
+        <v>2643.673171109688</v>
       </c>
       <c r="W35" t="n">
-        <v>2851.893102723301</v>
+        <v>2238.817716520722</v>
       </c>
       <c r="X35" t="n">
-        <v>2432.750639302611</v>
+        <v>2238.817716520722</v>
       </c>
       <c r="Y35" t="n">
-        <v>2024.464515602265</v>
+        <v>2238.817716520722</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G36" t="n">
-        <v>94.38419878279969</v>
+        <v>94.38419878279967</v>
       </c>
       <c r="H36" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="I36" t="n">
-        <v>112.3149972477987</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J36" t="n">
-        <v>508.5637505147025</v>
+        <v>184.0054255484901</v>
       </c>
       <c r="K36" t="n">
-        <v>631.0941111640019</v>
+        <v>306.5357861977895</v>
       </c>
       <c r="L36" t="n">
-        <v>795.8513022426765</v>
+        <v>471.2929772764642</v>
       </c>
       <c r="M36" t="n">
-        <v>988.1151731368294</v>
+        <v>663.5568481706169</v>
       </c>
       <c r="N36" t="n">
-        <v>1185.467696594547</v>
+        <v>860.909371628335</v>
       </c>
       <c r="O36" t="n">
-        <v>1366.006699613331</v>
+        <v>1041.448374647118</v>
       </c>
       <c r="P36" t="n">
-        <v>1510.905166135568</v>
+        <v>1186.346841169355</v>
       </c>
       <c r="Q36" t="n">
-        <v>1607.765953715686</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7074,13 +7074,13 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C37" t="n">
-        <v>940.6829283989587</v>
+        <v>940.682928398959</v>
       </c>
       <c r="D37" t="n">
-        <v>774.8049356004815</v>
+        <v>774.8049356004817</v>
       </c>
       <c r="E37" t="n">
-        <v>605.0469318512187</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F37" t="n">
         <v>428.3398778129751</v>
@@ -7092,7 +7092,7 @@
         <v>129.2663519946448</v>
       </c>
       <c r="I37" t="n">
-        <v>60.12580242351726</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="J37" t="n">
         <v>191.6817584242374</v>
@@ -7104,34 +7104,34 @@
         <v>1053.139058957355</v>
       </c>
       <c r="M37" t="n">
-        <v>1612.343363070976</v>
+        <v>1303.573255757434</v>
       </c>
       <c r="N37" t="n">
-        <v>2151.951474057205</v>
+        <v>1843.181366743663</v>
       </c>
       <c r="O37" t="n">
-        <v>2352.768458191201</v>
+        <v>2352.7684581912</v>
       </c>
       <c r="P37" t="n">
-        <v>2777.215599969509</v>
+        <v>2777.215599969508</v>
       </c>
       <c r="Q37" t="n">
-        <v>2998.677814292588</v>
+        <v>2998.677814292587</v>
       </c>
       <c r="R37" t="n">
-        <v>3006.290121175863</v>
+        <v>3006.290121175862</v>
       </c>
       <c r="S37" t="n">
-        <v>2858.360327182776</v>
+        <v>2858.360327182775</v>
       </c>
       <c r="T37" t="n">
-        <v>2615.254193287674</v>
+        <v>2615.254193287673</v>
       </c>
       <c r="U37" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530477</v>
       </c>
       <c r="V37" t="n">
-        <v>2049.901088400909</v>
+        <v>2049.901088400908</v>
       </c>
       <c r="W37" t="n">
         <v>1777.8746839872</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2429.9401743743</v>
+        <v>1795.820234498146</v>
       </c>
       <c r="C38" t="n">
-        <v>2031.939689959062</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="D38" t="n">
-        <v>1596.029905133506</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E38" t="n">
-        <v>1162.255160291802</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F38" t="n">
-        <v>734.3877307010093</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="G38" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351724</v>
       </c>
       <c r="H38" t="n">
         <v>60.12580242351724</v>
@@ -7177,22 +7177,22 @@
         <v>234.7606604020848</v>
       </c>
       <c r="K38" t="n">
-        <v>415.1612716583817</v>
+        <v>978.8174653931106</v>
       </c>
       <c r="L38" t="n">
-        <v>1159.218076649408</v>
+        <v>1202.620375769794</v>
       </c>
       <c r="M38" t="n">
-        <v>1898.95644015481</v>
+        <v>1451.644235768082</v>
       </c>
       <c r="N38" t="n">
-        <v>2152.009766554301</v>
+        <v>1704.697562167573</v>
       </c>
       <c r="O38" t="n">
-        <v>2390.960846925826</v>
+        <v>1943.648642539098</v>
       </c>
       <c r="P38" t="n">
-        <v>2594.900065694294</v>
+        <v>2147.587861307566</v>
       </c>
       <c r="Q38" t="n">
         <v>2748.049925732253</v>
@@ -7201,25 +7201,25 @@
         <v>3006.290121175862</v>
       </c>
       <c r="S38" t="n">
-        <v>3006.290121175862</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>2792.557124440473</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U38" t="n">
-        <v>2792.557124440473</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V38" t="n">
-        <v>2429.9401743743</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="W38" t="n">
-        <v>2429.9401743743</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="X38" t="n">
-        <v>2429.9401743743</v>
+        <v>2630.405928683401</v>
       </c>
       <c r="Y38" t="n">
-        <v>2429.9401743743</v>
+        <v>2222.119804983054</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>60.12580242351724</v>
       </c>
       <c r="I39" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J39" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K39" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L39" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M39" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N39" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P39" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q39" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R39" t="n">
         <v>1697.561900409858</v>
@@ -7332,16 +7332,16 @@
         <v>60.12580242351724</v>
       </c>
       <c r="J40" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K40" t="n">
-        <v>453.7703569787436</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L40" t="n">
-        <v>744.3689516438136</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M40" t="n">
-        <v>1303.573255757434</v>
+        <v>1612.343363070976</v>
       </c>
       <c r="N40" t="n">
         <v>1843.181366743663</v>
@@ -7359,7 +7359,7 @@
         <v>3006.290121175862</v>
       </c>
       <c r="S40" t="n">
-        <v>2858.360327182776</v>
+        <v>2858.360327182775</v>
       </c>
       <c r="T40" t="n">
         <v>2615.254193287673</v>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1596.029905133506</v>
+        <v>1600.397633108378</v>
       </c>
       <c r="C41" t="n">
-        <v>1596.029905133506</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="D41" t="n">
-        <v>1596.029905133506</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="E41" t="n">
         <v>1162.255160291802</v>
@@ -7411,28 +7411,28 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K41" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L41" t="n">
-        <v>833.0502213253062</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M41" t="n">
-        <v>1577.107026316332</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N41" t="n">
-        <v>2321.163831307358</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O41" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P41" t="n">
-        <v>2764.054130447351</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q41" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R41" t="n">
         <v>3006.290121175862</v>
@@ -7444,19 +7444,19 @@
         <v>2741.878700092718</v>
       </c>
       <c r="U41" t="n">
-        <v>2741.878700092718</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V41" t="n">
-        <v>2379.261750026544</v>
+        <v>2120.155207122276</v>
       </c>
       <c r="W41" t="n">
-        <v>2379.261750026544</v>
+        <v>2026.697203593286</v>
       </c>
       <c r="X41" t="n">
-        <v>2004.316028833853</v>
+        <v>2026.697203593286</v>
       </c>
       <c r="Y41" t="n">
-        <v>1596.029905133506</v>
+        <v>2026.697203593286</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>60.12580242351724</v>
       </c>
       <c r="I42" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J42" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294284</v>
       </c>
       <c r="K42" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787277</v>
       </c>
       <c r="L42" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574024</v>
       </c>
       <c r="M42" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515552</v>
       </c>
       <c r="N42" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O42" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P42" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q42" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915733</v>
       </c>
       <c r="C43" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989581</v>
       </c>
       <c r="D43" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004808</v>
       </c>
       <c r="E43" t="n">
-        <v>605.0469318512189</v>
+        <v>605.046931851218</v>
       </c>
       <c r="F43" t="n">
         <v>428.3398778129751</v>
@@ -7569,13 +7569,13 @@
         <v>60.12580242351724</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K43" t="n">
-        <v>453.7703569787436</v>
+        <v>540.3500421434335</v>
       </c>
       <c r="L43" t="n">
-        <v>966.5593737926657</v>
+        <v>1053.139058957355</v>
       </c>
       <c r="M43" t="n">
         <v>1303.573255757434</v>
@@ -7602,19 +7602,19 @@
         <v>2615.254193287673</v>
       </c>
       <c r="U43" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530477</v>
       </c>
       <c r="V43" t="n">
-        <v>2049.901088400909</v>
+        <v>2049.901088400908</v>
       </c>
       <c r="W43" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X43" t="n">
-        <v>1532.482929320613</v>
+        <v>1532.482929320612</v>
       </c>
       <c r="Y43" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.06325863472</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1634.221543807287</v>
+        <v>1566.120171737231</v>
       </c>
       <c r="C44" t="n">
-        <v>1196.07907099071</v>
+        <v>1566.120171737231</v>
       </c>
       <c r="D44" t="n">
-        <v>1196.07907099071</v>
+        <v>1130.210386911675</v>
       </c>
       <c r="E44" t="n">
-        <v>762.3043261490054</v>
+        <v>1130.210386911675</v>
       </c>
       <c r="F44" t="n">
-        <v>334.4368965582132</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G44" t="n">
         <v>334.4368965582132</v>
@@ -7648,25 +7648,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550027</v>
       </c>
       <c r="K44" t="n">
-        <v>978.8174653931106</v>
+        <v>850.4159591112995</v>
       </c>
       <c r="L44" t="n">
-        <v>1202.620375769794</v>
+        <v>1074.218869487983</v>
       </c>
       <c r="M44" t="n">
-        <v>1451.644235768082</v>
+        <v>1323.242729486271</v>
       </c>
       <c r="N44" t="n">
-        <v>1704.697562167573</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O44" t="n">
-        <v>2390.960846925826</v>
+        <v>1815.247136257287</v>
       </c>
       <c r="P44" t="n">
-        <v>2594.900065694294</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q44" t="n">
         <v>2748.049925732253</v>
@@ -7681,19 +7681,19 @@
         <v>2741.878700092718</v>
       </c>
       <c r="U44" t="n">
-        <v>2482.77215718845</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="V44" t="n">
-        <v>2120.155207122276</v>
+        <v>2379.261750026544</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.29975253331</v>
+        <v>1974.406295437577</v>
       </c>
       <c r="X44" t="n">
-        <v>1715.29975253331</v>
+        <v>1974.406295437577</v>
       </c>
       <c r="Y44" t="n">
-        <v>1715.29975253331</v>
+        <v>1566.120171737231</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>60.12580242351724</v>
       </c>
       <c r="I45" t="n">
-        <v>86.25132408734103</v>
+        <v>112.3149972477986</v>
       </c>
       <c r="J45" t="n">
-        <v>157.9417523880325</v>
+        <v>508.5637505147024</v>
       </c>
       <c r="K45" t="n">
-        <v>280.472113037332</v>
+        <v>673.7775884730677</v>
       </c>
       <c r="L45" t="n">
-        <v>445.2293041160066</v>
+        <v>838.5347795517423</v>
       </c>
       <c r="M45" t="n">
-        <v>637.4931750101595</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N45" t="n">
-        <v>834.8456984678776</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O45" t="n">
-        <v>1015.384701486661</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P45" t="n">
-        <v>1160.283168008898</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q45" t="n">
-        <v>1533.276652930412</v>
+        <v>1650.449431024751</v>
       </c>
       <c r="R45" t="n">
         <v>1697.561900409858</v>
@@ -7791,16 +7791,16 @@
         <v>774.8049356004808</v>
       </c>
       <c r="E46" t="n">
-        <v>605.046931851218</v>
+        <v>605.0469318512189</v>
       </c>
       <c r="F46" t="n">
-        <v>428.3398778129742</v>
+        <v>428.3398778129751</v>
       </c>
       <c r="G46" t="n">
-        <v>263.3976759832885</v>
+        <v>263.3976759832894</v>
       </c>
       <c r="H46" t="n">
-        <v>129.2663519946439</v>
+        <v>129.2663519946448</v>
       </c>
       <c r="I46" t="n">
         <v>60.12580242351724</v>
@@ -7815,7 +7815,7 @@
         <v>1053.139058957355</v>
       </c>
       <c r="M46" t="n">
-        <v>1612.343363070976</v>
+        <v>1303.573255757434</v>
       </c>
       <c r="N46" t="n">
         <v>1843.181366743663</v>
@@ -7984,25 +7984,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N3" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>39.64570999510202</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -8610,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>114.5149316177548</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5089844589319</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>94.45059665996246</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>545.5733194167251</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>397.278258015894</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>500.0332777704425</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>510.2078026459608</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.93911970628142</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,19 +9084,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216358</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
-        <v>222.291293948276</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>25.18381266382247</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>500.0332777704424</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>495.96310968842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>222.9907144309254</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>152.2361210781532</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>156.3261046875467</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5089844589319</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>510.2078026459608</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>29.51002495954094</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>53.09902264877152</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>152.2361210781532</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,13 +9649,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1008.338254547673</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>378.8538644107534</v>
       </c>
       <c r="P23" t="n">
-        <v>499.541051958216</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>397.2782580158945</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216357</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>126.5822947691818</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9877,13 +9877,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>209.2235144660842</v>
+        <v>378.8538644107514</v>
       </c>
       <c r="M26" t="n">
-        <v>1012.408422629695</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>252.5949739201399</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>397.2782580158944</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10044,13 +10044,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>134.8370665091952</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>39.1280673301012</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>671.2026652600332</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>378.8538644107525</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>397.2782580158944</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216357</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>134.837066509195</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10351,22 +10351,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>209.2235144660849</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1012.408422629696</v>
       </c>
       <c r="N32" t="n">
-        <v>225.4500343734694</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>252.5949739201398</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>397.2782580158946</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,13 +10515,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>239.6903485172336</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>112.0193352648889</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>569.3496906411403</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>545.5733194167246</v>
       </c>
       <c r="Q35" t="n">
-        <v>475.6068807059596</v>
+        <v>77.11988173457303</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="R36" t="n">
-        <v>43.11462354451032</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10752,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781521</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>112.0193352648889</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10825,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>569.3496906411405</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5089844589315</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>495.6712156637525</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>451.8305094815437</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>197.999454160716</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>134.8370665091948</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>196.0465043335768</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>500.0332777704422</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>495.9631096884195</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>29.51002495954003</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>252.5949739201396</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,7 +11226,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>239.6903485172331</v>
+        <v>152.2361210781526</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>569.3496906411403</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>451.8305094815437</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>29.51002495954003</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>43.11462354451101</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>278.9219165064601</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,10 +11463,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781526</v>
       </c>
       <c r="N46" t="n">
-        <v>134.8370665091945</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>278.1042172869065</v>
+        <v>335.0837001176149</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>273.1875867049851</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>351.2832603385373</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>320.0311943994916</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H17" t="n">
         <v>271.5679831933489</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.17164010427808</v>
       </c>
       <c r="T17" t="n">
         <v>211.5956667680352</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>203.3412234342893</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>248.3228020364493</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5956667680352</v>
+        <v>199.078940634136</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>379.4203933790776</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>247.9538517750407</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>39.74056851732564</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>304.5929950912587</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>308.2834765493764</v>
       </c>
       <c r="X41" t="n">
-        <v>43.75477480571828</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.7691481412962</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>31.72432564632493</v>
       </c>
       <c r="G44" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354665.5105462772</v>
+        <v>354665.5105462771</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>542008.7656987299</v>
+        <v>542008.76569873</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354665.5105462772</v>
+        <v>354665.510546277</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354665.510546277</v>
+        <v>354665.5105462772</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354665.5105462771</v>
+        <v>354665.5105462772</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>536147.3198904084</v>
       </c>
       <c r="C2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904083</v>
       </c>
       <c r="D2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="E2" t="n">
-        <v>377868.6531016933</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="F2" t="n">
-        <v>377868.6531016933</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="G2" t="n">
-        <v>377868.6531016933</v>
+        <v>377868.6531016932</v>
       </c>
       <c r="H2" t="n">
         <v>377868.6531016932</v>
       </c>
       <c r="I2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="J2" t="n">
         <v>536147.3198904084</v>
       </c>
       <c r="K2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="L2" t="n">
-        <v>536147.3198904084</v>
+        <v>536147.3198904085</v>
       </c>
       <c r="M2" t="n">
+        <v>377868.6531016931</v>
+      </c>
+      <c r="N2" t="n">
         <v>377868.6531016932</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>377868.6531016932</v>
+      </c>
+      <c r="P2" t="n">
         <v>377868.6531016931</v>
-      </c>
-      <c r="O2" t="n">
-        <v>377868.6531016931</v>
-      </c>
-      <c r="P2" t="n">
-        <v>377868.6531016933</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836708</v>
+        <v>498352.8259836707</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961175</v>
+        <v>136251.3108961176</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736712</v>
+        <v>10809.82265736713</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041613</v>
+        <v>49313.08122041596</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>302840.8112493959</v>
       </c>
       <c r="E4" t="n">
-        <v>71831.67210482147</v>
+        <v>71831.67210482151</v>
       </c>
       <c r="F4" t="n">
+        <v>71831.6721048215</v>
+      </c>
+      <c r="G4" t="n">
+        <v>71831.6721048215</v>
+      </c>
+      <c r="H4" t="n">
         <v>71831.67210482148</v>
       </c>
-      <c r="G4" t="n">
-        <v>71831.67210482148</v>
-      </c>
-      <c r="H4" t="n">
-        <v>71831.6721048215</v>
-      </c>
       <c r="I4" t="n">
-        <v>140708.1657130115</v>
+        <v>140708.1657130116</v>
       </c>
       <c r="J4" t="n">
-        <v>140708.1657130115</v>
+        <v>140708.1657130116</v>
       </c>
       <c r="K4" t="n">
-        <v>140708.1657130115</v>
+        <v>140708.1657130116</v>
       </c>
       <c r="L4" t="n">
         <v>140708.1657130116</v>
       </c>
       <c r="M4" t="n">
+        <v>71831.67210482145</v>
+      </c>
+      <c r="N4" t="n">
         <v>71831.67210482147</v>
-      </c>
-      <c r="N4" t="n">
-        <v>71831.67210482144</v>
       </c>
       <c r="O4" t="n">
         <v>71831.67210482145</v>
       </c>
       <c r="P4" t="n">
-        <v>71831.67210482145</v>
+        <v>71831.67210482147</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>36139.55218528966</v>
       </c>
       <c r="E5" t="n">
-        <v>53463.84704971768</v>
+        <v>53463.84704971767</v>
       </c>
       <c r="F5" t="n">
-        <v>53463.84704971768</v>
+        <v>53463.84704971767</v>
       </c>
       <c r="G5" t="n">
-        <v>53463.84704971768</v>
+        <v>53463.84704971767</v>
       </c>
       <c r="H5" t="n">
-        <v>53463.84704971768</v>
+        <v>53463.84704971767</v>
       </c>
       <c r="I5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716029</v>
       </c>
       <c r="J5" t="n">
         <v>84616.25585716026</v>
       </c>
       <c r="K5" t="n">
-        <v>84616.25585716026</v>
+        <v>84616.25585716027</v>
       </c>
       <c r="L5" t="n">
         <v>84616.25585716027</v>
       </c>
       <c r="M5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971766</v>
       </c>
       <c r="N5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971766</v>
       </c>
       <c r="O5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971766</v>
       </c>
       <c r="P5" t="n">
-        <v>53463.84704971767</v>
+        <v>53463.84704971766</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>183321.3486894263</v>
       </c>
       <c r="C6" t="n">
-        <v>197166.9564557228</v>
+        <v>197166.9564557227</v>
       </c>
       <c r="D6" t="n">
         <v>197166.9564557229</v>
       </c>
       <c r="E6" t="n">
-        <v>-245779.6920365166</v>
+        <v>-246175.3887034884</v>
       </c>
       <c r="F6" t="n">
-        <v>252573.1339471541</v>
+        <v>252177.4372801823</v>
       </c>
       <c r="G6" t="n">
-        <v>252573.1339471541</v>
+        <v>252177.4372801823</v>
       </c>
       <c r="H6" t="n">
-        <v>252573.133947154</v>
+        <v>252177.4372801823</v>
       </c>
       <c r="I6" t="n">
-        <v>174571.5874241191</v>
+        <v>174571.587424119</v>
       </c>
       <c r="J6" t="n">
-        <v>300013.0756628696</v>
+        <v>300013.0756628695</v>
       </c>
       <c r="K6" t="n">
         <v>310822.8983202367</v>
       </c>
       <c r="L6" t="n">
-        <v>310822.8983202365</v>
+        <v>310822.8983202367</v>
       </c>
       <c r="M6" t="n">
-        <v>203260.0527267379</v>
+        <v>202864.3560597663</v>
       </c>
       <c r="N6" t="n">
-        <v>252573.133947154</v>
+        <v>252177.4372801823</v>
       </c>
       <c r="O6" t="n">
-        <v>252573.133947154</v>
+        <v>252177.4372801823</v>
       </c>
       <c r="P6" t="n">
-        <v>252573.1339471542</v>
+        <v>252177.4372801821</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="F3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="G3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="H3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="I3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="J3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="K3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="L3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="M3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="N3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="O3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="P3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>751.5725302939658</v>
       </c>
       <c r="F4" t="n">
-        <v>751.5725302939658</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="G4" t="n">
-        <v>751.5725302939658</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="H4" t="n">
-        <v>751.5725302939658</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="I4" t="n">
         <v>1263.947675153219</v>
@@ -26822,7 +26822,7 @@
         <v>1263.947675153219</v>
       </c>
       <c r="M4" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939654</v>
       </c>
       <c r="N4" t="n">
         <v>751.5725302939655</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592533</v>
+        <v>512.3751448592536</v>
       </c>
       <c r="J4" t="n">
-        <v>41.31500304752688</v>
+        <v>41.31500304752689</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8823823871853</v>
+        <v>197.8823823871846</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U3" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W3" t="n">
         <v>142.1545236766106</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27539,13 +27539,13 @@
         <v>148.5854294842699</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E4" t="n">
-        <v>152.8738121091899</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>142.462343412403</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27596,7 +27596,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27700,19 +27700,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>46.15974531573791</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27751,16 +27751,16 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27791,10 +27791,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27836,13 +27836,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>232.9158856853093</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.9588623764525</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>56.78895584205373</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G9" t="n">
         <v>43.21623578895061</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28013,10 +28013,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28073,10 +28073,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>183.8304709315055</v>
@@ -30209,7 +30209,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I11" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J11" t="n">
         <v>121.5839606692725</v>
@@ -31767,13 +31767,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L11" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M11" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N11" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O11" t="n">
         <v>241.3647276480052</v>
@@ -31785,13 +31785,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S11" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T11" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U11" t="n">
         <v>0.1146021809280465</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H12" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J12" t="n">
         <v>72.41457404110251</v>
@@ -31846,13 +31846,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M12" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
         <v>182.3626293119023</v>
@@ -31861,19 +31861,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S12" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T12" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H13" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I13" t="n">
         <v>19.32420565765514</v>
@@ -31922,28 +31922,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L13" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M13" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N13" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O13" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P13" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R13" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S13" t="n">
         <v>11.19845896182735</v>
@@ -31952,7 +31952,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I14" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J14" t="n">
         <v>121.5839606692725</v>
@@ -32004,13 +32004,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L14" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M14" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N14" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
         <v>241.3647276480052</v>
@@ -32022,13 +32022,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S14" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T14" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U14" t="n">
         <v>0.1146021809280465</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H15" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J15" t="n">
         <v>72.41457404110251</v>
@@ -32083,13 +32083,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M15" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
         <v>182.3626293119023</v>
@@ -32098,19 +32098,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S15" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T15" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H16" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I16" t="n">
         <v>19.32420565765514</v>
@@ -32159,28 +32159,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L16" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M16" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N16" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O16" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P16" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R16" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S16" t="n">
         <v>11.19845896182735</v>
@@ -32189,7 +32189,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I17" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J17" t="n">
         <v>121.5839606692725</v>
@@ -32241,13 +32241,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L17" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M17" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N17" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
         <v>241.3647276480052</v>
@@ -32259,13 +32259,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S17" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T17" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U17" t="n">
         <v>0.1146021809280465</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H18" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J18" t="n">
         <v>72.41457404110251</v>
@@ -32320,13 +32320,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M18" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O18" t="n">
         <v>182.3626293119023</v>
@@ -32335,19 +32335,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S18" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T18" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H19" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I19" t="n">
         <v>19.32420565765514</v>
@@ -32396,28 +32396,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K19" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L19" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M19" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N19" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O19" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P19" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R19" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S19" t="n">
         <v>11.19845896182735</v>
@@ -32426,7 +32426,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I20" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J20" t="n">
         <v>121.5839606692725</v>
@@ -32478,13 +32478,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L20" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M20" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N20" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
         <v>241.3647276480052</v>
@@ -32496,13 +32496,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S20" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T20" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U20" t="n">
         <v>0.1146021809280465</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H21" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J21" t="n">
         <v>72.41457404110251</v>
@@ -32557,13 +32557,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M21" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O21" t="n">
         <v>182.3626293119023</v>
@@ -32572,19 +32572,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S21" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T21" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H22" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I22" t="n">
         <v>19.32420565765514</v>
@@ -32633,28 +32633,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K22" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L22" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M22" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N22" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O22" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P22" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R22" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S22" t="n">
         <v>11.19845896182735</v>
@@ -32663,7 +32663,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I23" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J23" t="n">
         <v>121.5839606692725</v>
@@ -32715,13 +32715,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L23" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N23" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
         <v>241.3647276480052</v>
@@ -32733,13 +32733,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S23" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T23" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U23" t="n">
         <v>0.1146021809280465</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J24" t="n">
         <v>72.41457404110251</v>
@@ -32794,13 +32794,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L24" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M24" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
@@ -32809,19 +32809,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S24" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T24" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I25" t="n">
         <v>19.32420565765514</v>
@@ -32870,28 +32870,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M25" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R25" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S25" t="n">
         <v>11.19845896182735</v>
@@ -32900,7 +32900,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I26" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J26" t="n">
         <v>121.5839606692725</v>
@@ -32952,13 +32952,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L26" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M26" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N26" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
         <v>241.3647276480052</v>
@@ -32970,13 +32970,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S26" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T26" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U26" t="n">
         <v>0.1146021809280465</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J27" t="n">
         <v>72.41457404110251</v>
@@ -33031,13 +33031,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M27" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O27" t="n">
         <v>182.3626293119023</v>
@@ -33046,19 +33046,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S27" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T27" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H28" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I28" t="n">
         <v>19.32420565765514</v>
@@ -33107,28 +33107,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M28" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P28" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R28" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S28" t="n">
         <v>11.19845896182735</v>
@@ -33137,7 +33137,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I29" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J29" t="n">
         <v>121.5839606692725</v>
@@ -33189,13 +33189,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L29" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N29" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
         <v>241.3647276480052</v>
@@ -33207,13 +33207,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S29" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T29" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U29" t="n">
         <v>0.1146021809280465</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J30" t="n">
         <v>72.41457404110251</v>
@@ -33268,13 +33268,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M30" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
         <v>182.3626293119023</v>
@@ -33283,19 +33283,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S30" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T30" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H31" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I31" t="n">
         <v>19.32420565765514</v>
@@ -33344,28 +33344,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M31" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P31" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R31" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S31" t="n">
         <v>11.19845896182735</v>
@@ -33374,7 +33374,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I32" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J32" t="n">
         <v>121.5839606692725</v>
@@ -33426,13 +33426,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L32" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M32" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N32" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
         <v>241.3647276480052</v>
@@ -33444,13 +33444,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S32" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T32" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U32" t="n">
         <v>0.1146021809280465</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J33" t="n">
         <v>72.41457404110251</v>
@@ -33505,13 +33505,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M33" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
@@ -33520,19 +33520,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S33" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T33" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H34" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I34" t="n">
         <v>19.32420565765514</v>
@@ -33581,28 +33581,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M34" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P34" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R34" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S34" t="n">
         <v>11.19845896182735</v>
@@ -33611,7 +33611,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I35" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J35" t="n">
         <v>121.5839606692725</v>
@@ -33663,13 +33663,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L35" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M35" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N35" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
         <v>241.3647276480052</v>
@@ -33681,13 +33681,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S35" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T35" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U35" t="n">
         <v>0.1146021809280465</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J36" t="n">
         <v>72.41457404110251</v>
@@ -33742,13 +33742,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M36" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
         <v>182.3626293119023</v>
@@ -33757,19 +33757,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S36" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T36" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H37" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I37" t="n">
         <v>19.32420565765514</v>
@@ -33818,28 +33818,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M37" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P37" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R37" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S37" t="n">
         <v>11.19845896182735</v>
@@ -33848,7 +33848,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I38" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J38" t="n">
         <v>121.5839606692725</v>
@@ -33900,13 +33900,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L38" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N38" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O38" t="n">
         <v>241.3647276480052</v>
@@ -33918,13 +33918,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S38" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T38" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U38" t="n">
         <v>0.1146021809280465</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J39" t="n">
         <v>72.41457404110251</v>
@@ -33979,13 +33979,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M39" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
         <v>182.3626293119023</v>
@@ -33994,19 +33994,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S39" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T39" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H40" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I40" t="n">
         <v>19.32420565765514</v>
@@ -34055,28 +34055,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M40" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P40" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R40" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S40" t="n">
         <v>11.19845896182735</v>
@@ -34085,7 +34085,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I41" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J41" t="n">
         <v>121.5839606692725</v>
@@ -34137,13 +34137,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L41" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M41" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N41" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
         <v>241.3647276480052</v>
@@ -34155,13 +34155,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S41" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T41" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U41" t="n">
         <v>0.1146021809280465</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J42" t="n">
         <v>72.41457404110251</v>
@@ -34216,13 +34216,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M42" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O42" t="n">
         <v>182.3626293119023</v>
@@ -34231,19 +34231,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S42" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T42" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H43" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I43" t="n">
         <v>19.32420565765514</v>
@@ -34292,28 +34292,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M43" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P43" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R43" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S43" t="n">
         <v>11.19845896182735</v>
@@ -34322,7 +34322,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I44" t="n">
-        <v>55.22750725285648</v>
+        <v>55.22750725285647</v>
       </c>
       <c r="J44" t="n">
         <v>121.5839606692725</v>
@@ -34374,13 +34374,13 @@
         <v>182.2228396528251</v>
       </c>
       <c r="L44" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M44" t="n">
         <v>251.5392525235233</v>
       </c>
       <c r="N44" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
         <v>241.3647276480052</v>
@@ -34392,13 +34392,13 @@
         <v>154.6968283211699</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651761</v>
       </c>
       <c r="S44" t="n">
         <v>32.64371497372328</v>
       </c>
       <c r="T44" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656548</v>
       </c>
       <c r="U44" t="n">
         <v>0.1146021809280465</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969532</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260049</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204422</v>
       </c>
       <c r="J45" t="n">
         <v>72.41457404110251</v>
@@ -34453,13 +34453,13 @@
         <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299744</v>
       </c>
       <c r="M45" t="n">
-        <v>194.205930196114</v>
+        <v>194.2059301961139</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
         <v>182.3626293119023</v>
@@ -34468,19 +34468,19 @@
         <v>146.3620873961989</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385671</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424945</v>
       </c>
       <c r="S45" t="n">
         <v>14.23683770781621</v>
       </c>
       <c r="T45" t="n">
-        <v>3.089410591141228</v>
+        <v>3.089410591141227</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874694</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417366</v>
       </c>
       <c r="H46" t="n">
-        <v>5.713141817771081</v>
+        <v>5.71314181777108</v>
       </c>
       <c r="I46" t="n">
         <v>19.32420565765514</v>
@@ -34529,28 +34529,28 @@
         <v>45.43057660205078</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884902</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440511</v>
       </c>
       <c r="M46" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028691</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429931</v>
       </c>
       <c r="P46" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824782</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.80751460479489</v>
+        <v>53.80751460479487</v>
       </c>
       <c r="R46" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367662</v>
       </c>
       <c r="S46" t="n">
         <v>11.19845896182735</v>
@@ -34559,7 +34559,7 @@
         <v>2.745579401178329</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.03504994980227658</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M2" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N3" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34871,10 +34871,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K5" t="n">
-        <v>39.64570999510202</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q9" t="n">
         <v>41.31500304752734</v>
@@ -35330,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752735</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35351,7 +35351,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J11" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K11" t="n">
-        <v>296.73777127058</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L11" t="n">
-        <v>751.5725302939658</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235233</v>
       </c>
       <c r="N11" t="n">
-        <v>255.6094206055461</v>
+        <v>255.609420605546</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480053</v>
+        <v>335.8153243079676</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772408</v>
+        <v>751.5725302939659</v>
       </c>
       <c r="Q11" t="n">
-        <v>706.7158040369222</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R11" t="n">
         <v>89.98599059651769</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110251</v>
+        <v>72.4145740411025</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L12" t="n">
         <v>166.4214051299745</v>
@@ -35500,19 +35500,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N12" t="n">
-        <v>596.6242413065183</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O12" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939964</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35579,10 +35579,10 @@
         <v>252.9638351515957</v>
       </c>
       <c r="N13" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O13" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P13" t="n">
         <v>428.7344866447547</v>
@@ -35591,7 +35591,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R13" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528252</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L14" t="n">
         <v>226.063545835034</v>
       </c>
       <c r="M14" t="n">
-        <v>751.5725302939658</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N14" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O14" t="n">
-        <v>751.5725302939659</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.6359480274514</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R14" t="n">
         <v>260.8486822662721</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K15" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L15" t="n">
         <v>166.4214051299745</v>
@@ -35737,19 +35737,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P15" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q15" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K16" t="n">
         <v>352.1901855749456</v>
       </c>
       <c r="L16" t="n">
-        <v>517.9687038524467</v>
+        <v>206.079706566041</v>
       </c>
       <c r="M16" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N16" t="n">
-        <v>320.6239281185628</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O16" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P16" t="n">
         <v>428.7344866447547</v>
@@ -35828,7 +35828,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R16" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J17" t="n">
-        <v>146.7677733330949</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L17" t="n">
         <v>226.063545835034</v>
       </c>
       <c r="M17" t="n">
-        <v>751.5725302939658</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N17" t="n">
-        <v>751.5725302939659</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O17" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R17" t="n">
         <v>260.8486822662721</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J18" t="n">
         <v>72.41457404110251</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L18" t="n">
-        <v>563.6996631458687</v>
+        <v>166.4214051299745</v>
       </c>
       <c r="M18" t="n">
         <v>194.205930196114</v>
@@ -35980,13 +35980,13 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P18" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939964</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>132.8848040411315</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K19" t="n">
-        <v>352.1901855749456</v>
+        <v>297.6471075097744</v>
       </c>
       <c r="L19" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M19" t="n">
-        <v>252.9638351515957</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N19" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O19" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P19" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q19" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R19" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K20" t="n">
-        <v>338.5489443403719</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L20" t="n">
-        <v>751.5725302939658</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M20" t="n">
         <v>251.5392525235234</v>
@@ -36135,16 +36135,16 @@
         <v>255.6094206055459</v>
       </c>
       <c r="O20" t="n">
-        <v>751.5725302939659</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367817</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369218</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J21" t="n">
         <v>72.41457404110251</v>
       </c>
       <c r="K21" t="n">
-        <v>521.0462990757926</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L21" t="n">
         <v>166.4214051299745</v>
@@ -36217,13 +36217,13 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P21" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939964</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>132.8848040411315</v>
+        <v>45.43057660205077</v>
       </c>
       <c r="K22" t="n">
-        <v>352.1901855749456</v>
+        <v>127.7554157276205</v>
       </c>
       <c r="L22" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M22" t="n">
-        <v>252.9638351515957</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O22" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P22" t="n">
         <v>428.7344866447547</v>
@@ -36302,7 +36302,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R22" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528251</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L23" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N23" t="n">
-        <v>1263.947675153219</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>1231.445198931143</v>
+        <v>620.2185920587585</v>
       </c>
       <c r="P23" t="n">
-        <v>705.5402628354568</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
         <v>706.7158040369222</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836502</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L24" t="n">
         <v>166.4214051299745</v>
@@ -36448,7 +36448,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>596.6242413065188</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
@@ -36460,7 +36460,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K25" t="n">
         <v>352.1901855749456</v>
       </c>
       <c r="L25" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660408</v>
       </c>
       <c r="M25" t="n">
-        <v>564.8528324380012</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N25" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O25" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P25" t="n">
-        <v>204.2997167974295</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q25" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R25" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J26" t="n">
         <v>561.2351601166642</v>
       </c>
       <c r="K26" t="n">
-        <v>182.2228396528251</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L26" t="n">
-        <v>435.2870603011181</v>
+        <v>604.9174102457853</v>
       </c>
       <c r="M26" t="n">
-        <v>1263.947675153219</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N26" t="n">
         <v>255.6094206055459</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J27" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K27" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L27" t="n">
         <v>166.4214051299745</v>
@@ -36685,19 +36685,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q27" t="n">
-        <v>495.1174373897511</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36764,19 +36764,19 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N28" t="n">
-        <v>545.0586979658876</v>
+        <v>233.169700679482</v>
       </c>
       <c r="O28" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P28" t="n">
-        <v>116.8454893583489</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q28" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R28" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J29" t="n">
-        <v>121.5839606692724</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528251</v>
+        <v>1025.000912337853</v>
       </c>
       <c r="L29" t="n">
         <v>226.0635458350339</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235234</v>
+        <v>251.5392525235231</v>
       </c>
       <c r="N29" t="n">
-        <v>926.8120858655793</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O29" t="n">
-        <v>1231.445198931143</v>
+        <v>620.2185920587576</v>
       </c>
       <c r="P29" t="n">
         <v>1042.675852123096</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.4145740411025</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K30" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L30" t="n">
         <v>166.4214051299745</v>
@@ -36922,19 +36922,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O30" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q30" t="n">
-        <v>495.1174373897511</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,19 +36992,19 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K31" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L31" t="n">
-        <v>517.9687038524465</v>
+        <v>206.0797065660408</v>
       </c>
       <c r="M31" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N31" t="n">
-        <v>233.1697006794818</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O31" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P31" t="n">
         <v>428.7344866447547</v>
@@ -37013,7 +37013,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J32" t="n">
         <v>561.2351601166642</v>
       </c>
       <c r="K32" t="n">
-        <v>1025.000912337853</v>
+        <v>182.2228396528251</v>
       </c>
       <c r="L32" t="n">
-        <v>226.0635458350339</v>
+        <v>435.2870603011188</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235231</v>
+        <v>1263.947675153219</v>
       </c>
       <c r="N32" t="n">
-        <v>481.0594549790153</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772408</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q32" t="n">
         <v>706.7158040369222</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612423</v>
       </c>
       <c r="K33" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L33" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4841882120086</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
         <v>199.3459832906242</v>
@@ -37171,7 +37171,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K34" t="n">
         <v>352.1901855749456</v>
@@ -37235,13 +37235,13 @@
         <v>517.9687038524467</v>
       </c>
       <c r="M34" t="n">
-        <v>340.418062590676</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N34" t="n">
         <v>545.0586979658874</v>
       </c>
       <c r="O34" t="n">
-        <v>514.7344358055939</v>
+        <v>202.8454385191881</v>
       </c>
       <c r="P34" t="n">
         <v>428.7344866447547</v>
@@ -37250,7 +37250,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R34" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J35" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528251</v>
+        <v>751.5725302939654</v>
       </c>
       <c r="L35" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M35" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N35" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O35" t="n">
         <v>241.3647276480051</v>
@@ -37326,10 +37326,10 @@
         <v>751.5725302939654</v>
       </c>
       <c r="Q35" t="n">
-        <v>630.3037090271296</v>
+        <v>231.816710055743</v>
       </c>
       <c r="R35" t="n">
-        <v>260.8486822662721</v>
+        <v>89.98599059651769</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>52.71635840836505</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J36" t="n">
-        <v>400.2512659261655</v>
+        <v>72.41457404110253</v>
       </c>
       <c r="K36" t="n">
         <v>123.7680410598983</v>
@@ -37396,19 +37396,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O36" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P36" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939964</v>
       </c>
       <c r="R36" t="n">
-        <v>90.70297645875985</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K37" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L37" t="n">
         <v>517.9687038524465</v>
       </c>
       <c r="M37" t="n">
-        <v>564.8528324380011</v>
+        <v>252.9638351515946</v>
       </c>
       <c r="N37" t="n">
         <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
-        <v>202.8454385191881</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P37" t="n">
         <v>428.7344866447547</v>
@@ -37487,7 +37487,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R37" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J38" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528251</v>
+        <v>751.5725302939655</v>
       </c>
       <c r="L38" t="n">
-        <v>751.5725302939654</v>
+        <v>226.0635458350339</v>
       </c>
       <c r="M38" t="n">
-        <v>747.2104681872759</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N38" t="n">
         <v>255.6094206055459</v>
@@ -37563,7 +37563,7 @@
         <v>205.9992108772408</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.69682832117</v>
+        <v>606.5273378027136</v>
       </c>
       <c r="R38" t="n">
         <v>260.8486822662721</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L39" t="n">
         <v>166.4214051299745</v>
@@ -37633,19 +37633,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q39" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K40" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L40" t="n">
-        <v>293.5339340051212</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M40" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N40" t="n">
-        <v>545.0586979658874</v>
+        <v>233.1697006794816</v>
       </c>
       <c r="O40" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P40" t="n">
         <v>428.7344866447547</v>
@@ -37724,7 +37724,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528251</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L41" t="n">
-        <v>422.1100501686107</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M41" t="n">
-        <v>751.5725302939655</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N41" t="n">
-        <v>751.5725302939654</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O41" t="n">
         <v>241.3647276480051</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367808</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612422</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598983</v>
       </c>
       <c r="L42" t="n">
         <v>166.4214051299745</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4841882120081</v>
+        <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
         <v>199.3459832906242</v>
@@ -37876,13 +37876,13 @@
         <v>182.3626293119023</v>
       </c>
       <c r="P42" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q42" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K43" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L43" t="n">
-        <v>517.9687038524467</v>
+        <v>517.9687038524465</v>
       </c>
       <c r="M43" t="n">
-        <v>340.4180625906756</v>
+        <v>252.963835151595</v>
       </c>
       <c r="N43" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O43" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P43" t="n">
         <v>428.7344866447547</v>
@@ -37961,7 +37961,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R43" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.81488577372508</v>
+        <v>54.81488577372507</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166642</v>
       </c>
       <c r="K44" t="n">
-        <v>751.5725302939655</v>
+        <v>182.222839652825</v>
       </c>
       <c r="L44" t="n">
-        <v>226.0635458350339</v>
+        <v>226.063545835034</v>
       </c>
       <c r="M44" t="n">
         <v>251.5392525235234</v>
@@ -38031,13 +38031,13 @@
         <v>255.6094206055459</v>
       </c>
       <c r="O44" t="n">
-        <v>693.1952371295488</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367808</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R44" t="n">
         <v>260.8486822662721</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836503</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110253</v>
+        <v>400.2512659261654</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044093</v>
       </c>
       <c r="L45" t="n">
         <v>166.4214051299745</v>
@@ -38107,19 +38107,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906242</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119021</v>
       </c>
       <c r="P45" t="n">
-        <v>146.3620873961991</v>
+        <v>146.3620873961988</v>
       </c>
       <c r="Q45" t="n">
-        <v>376.7610958803168</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R45" t="n">
-        <v>165.9446944236836</v>
+        <v>47.58835291424953</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>132.8848040411315</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K46" t="n">
-        <v>352.1901855749455</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L46" t="n">
         <v>517.9687038524465</v>
       </c>
       <c r="M46" t="n">
-        <v>564.8528324380011</v>
+        <v>252.963835151595</v>
       </c>
       <c r="N46" t="n">
-        <v>233.1697006794814</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O46" t="n">
-        <v>514.7344358055939</v>
+        <v>514.7344358055936</v>
       </c>
       <c r="P46" t="n">
         <v>428.7344866447547</v>
@@ -38198,7 +38198,7 @@
         <v>223.6992063869488</v>
       </c>
       <c r="R46" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994787</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
